--- a/biology/Botanique/Forêt_de_Bachdjerrah/Forêt_de_Bachdjerrah.xlsx
+++ b/biology/Botanique/Forêt_de_Bachdjerrah/Forêt_de_Bachdjerrah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bachdjerrah</t>
+          <t>Forêt_de_Bachdjerrah</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Bachdjerrah, bois de Oued Ouchayah ou forêt des Palmiers, est une petite forêt d'Algérie située à Bachdjerrah dans la wilaya d'Alger. Cette forêt est gérée par la Conservation des forêts d'Alger (CFA) sous la tutelle de la Direction générale des forêts (DGF).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bachdjerrah</t>
+          <t>Forêt_de_Bachdjerrah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Bachdjerrah est située à 18 kilomètres à l'est d'Alger, à 70 kilomètres à l'est de Tipaza et à 4 kilomètres de la Mer Méditerranée[6]. Elle est localisée dans la commune d'Aïn Taya dans la Mitidja.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Bachdjerrah est située à 18 kilomètres à l'est d'Alger, à 70 kilomètres à l'est de Tipaza et à 4 kilomètres de la Mer Méditerranée. Elle est localisée dans la commune d'Aïn Taya dans la Mitidja.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bachdjerrah</t>
+          <t>Forêt_de_Bachdjerrah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Bachdjerrah est régie par le décret no 84-45 du 18 février 1984[14], modifié et complété par le décret no 07-09 du 11 janvier 2007[15].
-Cette forêt est située près de la Cité les Palmiers et du Tunnel de Oued Ouchayah[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Bachdjerrah est régie par le décret no 84-45 du 18 février 1984, modifié et complété par le décret no 07-09 du 11 janvier 2007.
+Cette forêt est située près de la Cité les Palmiers et du Tunnel de Oued Ouchayah.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bachdjerrah</t>
+          <t>Forêt_de_Bachdjerrah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Bachdjerrah a été dégradée depuis l'opération de relogement de 1984 qui a permis de mettre fin aux squats et aux bidonvilles qui entouraient ce bois situé à la lisière de l'Oued Ouchayah[17].
-Les anciens bidonvilles étaient construits aux abords de cette forêt et de cet oued[18],[19].
-Depuis 1984, le bois de Oued Ouchayah a été réoccupé par des baraques dont les habitants n'ont bénéficié d'un relogement qu'après 2012[16]. Ce relogement, achevé en 2015, a permis de récupérer cet espace forestier[20].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Bachdjerrah a été dégradée depuis l'opération de relogement de 1984 qui a permis de mettre fin aux squats et aux bidonvilles qui entouraient ce bois situé à la lisière de l'Oued Ouchayah.
+Les anciens bidonvilles étaient construits aux abords de cette forêt et de cet oued,.
+Depuis 1984, le bois de Oued Ouchayah a été réoccupé par des baraques dont les habitants n'ont bénéficié d'un relogement qu'après 2012. Ce relogement, achevé en 2015, a permis de récupérer cet espace forestier.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bachdjerrah</t>
+          <t>Forêt_de_Bachdjerrah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette forêt abrite le hérisson d'Algérie (Atelerix algirus), un hérisson à ventre blanc des régions côtières d'Algérie, protégé sur tout le territoire algérien.
 On y trouve également le lapin de garenne (Oryctolagus cuniculus), commun en Algérie mais en déclin, le lièvre du Cap (Lepus capensis) et le sanglier (Sus scrofa)[réf. nécessaire].
